--- a/outputs/fft-c__Clostridia.xlsx
+++ b/outputs/fft-c__Clostridia.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1740" yWindow="460" windowWidth="28800" windowHeight="15880" tabRatio="600" firstSheet="3" activeTab="7" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="7" autoFilterDateGrouping="1" firstSheet="3" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15880" windowWidth="28800" xWindow="1740" yWindow="460"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" state="visible" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="f__Lachnospiracea-LSVM-2" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="g__RC9-LSVM-2" sheetId="11" state="visible" r:id="rId11"/>
     <sheet name="g__Prevotella-LSVM-2" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="g__C941-LSVM" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -85,21 +86,21 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2783,7 +2784,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -9021,7 +9022,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -11546,7 +11547,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -17596,7 +17597,1443 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>o__Acetivibrionales</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>o__Clostridiales</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>o__Eubacteriales</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>o__TANB77</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>o__Tissierellales</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RUG401</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-20.31148780325603</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.588248279897598</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-5.841369596827451</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.272735434076208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.01090135266122793</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.9291303484312932</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-1.976514206976115</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-4.18411742283263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1.936174277712695</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RUG354</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-17.34016710729001</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.196772707461994</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-2.448395101289591</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.066356586947207</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.483018800402816</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-0.664357467762095</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-2.092026763193307</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-4.244779947495318</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1.489219158844567</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RUG462</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-33.81348640650484</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-3.185364071163424</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-8.289135381298482</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.207288701533155</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0004074448345708151</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1.470668327536469</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-2.056952752013969</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-5.542905336837856</v>
+      </c>
+      <c r="J4" t="n">
+        <v>-2.233813176536033</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RUG362</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-14.44481505471334</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.539987238892863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-4.068138722117844</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.882157319186799</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.5587817699326236</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.1681805344072084</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-2.925060792940161</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-4.14982693297724</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-1.843881035234051</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RUG494</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-35.58118480597193</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.963921622782488</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.732580462524805</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-0.2133746149330589</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.964573830973587</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-0.5771070726561357</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-4.520009264088527</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-3.942812270660664</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1.937909011301148</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>o__Lachnospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RUG559</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-33.65048068257873</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-3.224627072625593</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-5.833112621362758</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.29103515522843</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.398388223349409</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.613447586243997</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-4.300989631606579</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-5.112346962767274</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1.957820209259372</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>RUG575</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-34.16613613855452</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.523848333060207</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-4.638253306334703</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-2.295516916063297</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.227456765707564</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-1.200130144250087</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-0.8892069489243541</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-4.537233651086758</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-2.185032984767793</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>RUG396</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-18.82411903273119</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-1.665122374882761</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-3.550917260525452</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.6049017999796041</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.5396046148231333</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-0.4568798021640534</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-3.15712716201435</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-4.149811145215912</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1.22189537064213</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>RUG378</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-33.73114734448765</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-3.139755836244106</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.305141896714207</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.888217272218545</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.8314273534426546</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.6655316810217203</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-3.39702032466756</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-4.25724518733742</v>
+      </c>
+      <c r="J10" t="n">
+        <v>-1.710235620153937</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>RUG558</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.42709521251732</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-2.538845770529568</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-5.963341296305522</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.429179827841618</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.4098263876377532</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1.006769984216306</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-1.857191450108709</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-4.464995168683665</v>
+      </c>
+      <c r="J11" t="n">
+        <v>-1.637877162659485</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>RUG549</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>-26.46761680675165</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-2.040541148957713</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-5.676684494686016</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.309190335217763</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.05371038146320968</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.7810477056706312</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1.011413845899815</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-4.938958860577957</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2.080047663937313</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>RUG548</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>-27.71852035687363</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-3.254219382511046</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-7.132382690441177</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.188366298582528</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.89896886896476</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-1.128735677152312</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-4.111680433610879</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-4.361365775848978</v>
+      </c>
+      <c r="J13" t="n">
+        <v>-1.901016980439913</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>hRUG888</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-45.01927329231403</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-4.582561508941297</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-13.00538389580001</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-0.8132988719756826</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.5828201743945087</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-1.946822467470648</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-8.039425825107596</v>
+      </c>
+      <c r="I14" t="n">
+        <v>-4.519907069990833</v>
+      </c>
+      <c r="J14" t="n">
+        <v>-3.055834360341004</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>RUG278</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>-23.72588921424881</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.158751142069558</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-5.918365991135457</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.823030812121396</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.2301269153193114</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.7315356232625807</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-0.8453721156340287</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-4.974791272683478</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-2.239363548892785</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>RUG755</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-13.37599133811387</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.818994855436058</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-3.30039575980073</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.244437440635268</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.4479802962898436</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.5284631693761579</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.3726614482764208</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-3.718952591562994</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1.513065055420907</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>RUG723</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-36.53463942650188</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-3.521517024317844</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-5.981851111665763</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.939389716550461</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.2532100717327792</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-1.072405509626501</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.07109705491602157</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-4.69621597711708</v>
+      </c>
+      <c r="J17" t="n">
+        <v>-1.642578771514968</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>RUG497</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-20.30650479450757</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.257813329075515</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-2.82886849987088</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.49739632040085</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1903342109273158</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.8191942590704345</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.4105649852934747</v>
+      </c>
+      <c r="I18" t="n">
+        <v>-4.741549378101956</v>
+      </c>
+      <c r="J18" t="n">
+        <v>-1.530127110101329</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>RUG490</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-36.19990650387703</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.765473003633137</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-3.900025020536346</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.444237310914723</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.5937328913182029</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1.116684778132321</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-2.489393723059509</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-4.420117303803537</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1.619597243177337</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>RUG379</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>-21.38759096059113</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.927404489664068</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-4.791347894075869</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.509180472106685</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.3319025867321081</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.6676017801792667</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-1.385619103234881</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-4.751251508265114</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1.817464980844785</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>RUG412</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-24.91724413960132</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.585899566637329</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-5.015229188623225</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-1.506523643012122</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.6518361198205918</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.7720115158412564</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.5955071746710594</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-3.847690212460475</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1.635498858127403</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>RUG507</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>-17.54365604133107</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.56928835546425</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-5.814395508985477</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-1.67453699277727</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.2286539832568935</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.151425085173634</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-3.68338530171982</v>
+      </c>
+      <c r="I22" t="n">
+        <v>-5.165086004595832</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1.833186078293173</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>RUG485</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-35.72830797269712</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.857998201688085</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-4.248866131780959</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-1.414121833480915</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.03324375349070414</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.7420128198028556</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.2395676969920582</v>
+      </c>
+      <c r="I23" t="n">
+        <v>-4.582094340124025</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-2.051524840083709</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>o__Saccharofermentanales</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>RUG482</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>-39.03225400934359</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.535353205070248</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-3.034119838544583</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-1.575337441970698</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.1985699099551789</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.8053456738546915</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-0.8642476699796461</v>
+      </c>
+      <c r="I24" t="n">
+        <v>-4.720095087395086</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-1.35520603622808</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>RUG639</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>-17.35425986326172</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.44336501244439</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-3.919528634281645</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-0.7069569908655494</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-1.050683114756391</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.6939822772174615</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1.931889425425713</v>
+      </c>
+      <c r="I25" t="n">
+        <v>-4.03080047852203</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1.66072424487426</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>RUG519</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>-34.51964518846628</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.861741534982444</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-5.595189394447531</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-1.603702226646321</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.524767775761529</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.567702265974195</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-2.423338142201361</v>
+      </c>
+      <c r="I26" t="n">
+        <v>-5.052363336868727</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1.90323823107944</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>RUG800</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-17.46602636737497</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.732004727009238</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-3.25091536563921</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-1.104076713769871</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1377255942358069</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.7240807874566563</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-1.407718577199044</v>
+      </c>
+      <c r="I27" t="n">
+        <v>-3.918879137296995</v>
+      </c>
+      <c r="J27" t="n">
+        <v>-1.582314553367589</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>RUG330</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-25.98955404100334</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.827168669776525</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.82610023947861</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.957368356860347</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.5459548185864169</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.6319016955241629</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.737305589734458</v>
+      </c>
+      <c r="I28" t="n">
+        <v>-4.191797794723486</v>
+      </c>
+      <c r="J28" t="n">
+        <v>-1.544111019168326</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>RUG269</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-14.61344017767703</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.849076700546251</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-2.834512288467232</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.00359039981546</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.6627739632588783</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.6795796354612581</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.135166891209469</v>
+      </c>
+      <c r="I29" t="n">
+        <v>-5.259840763503039</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-1.525131554555556</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>hRUG857</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>-28.01628046570463</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.295260706998936</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-5.983537363419401</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-1.453132240020441</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.4179234740107778</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.850040871989496</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-3.379560192486847</v>
+      </c>
+      <c r="I30" t="n">
+        <v>-4.6774026847876</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1.942238201185817</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>RUG532</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>-8.985545517067314</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-3.150604315050778</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-5.595654293750782</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-1.329284155793045</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1414005901380435</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.3943166371807726</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.1525340767060324</v>
+      </c>
+      <c r="I31" t="n">
+        <v>-4.800229790415005</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1.395996152515796</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>RUG373</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>-14.68870788810982</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-2.587789755705216</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-5.036692229137254</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.701519948981387</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.6247991027440716</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.429658475213472</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-3.857106113219189</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-5.553883580784009</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1.817281605270674</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>o__Peptostreptococcales</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>RUG506</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>-11.72135523347707</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.95131853223432</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-4.412534142763741</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-1.81379024783486</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.07850057512460372</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.5881637131594565</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-2.992438173722912</v>
+      </c>
+      <c r="I33" t="n">
+        <v>-3.814689321185458</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1.751476772334051</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>RUG434</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>-40.21444301173242</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-2.648174648292432</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-5.190791356917396</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-1.622964638873684</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.1493016775755936</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1.051065847134683</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-2.464920401220019</v>
+      </c>
+      <c r="I34" t="n">
+        <v>-4.916063674321637</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-2.44486512192542</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>RUG228</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>-29.09830314687851</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-2.337472563051735</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-4.102891276503314</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.9268596681710253</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.3165745239569119</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.4195692854772506</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-3.858581785022077</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-3.917826317180563</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1.652447029778875</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>RUG496</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>-23.90314411409844</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-2.582792508114746</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-5.936933943126117</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-1.626877549101504</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.22330695022898</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.8051680858886017</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-1.888171634336876</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-4.548825343467826</v>
+      </c>
+      <c r="J36" t="n">
+        <v>-1.561088581078929</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>o__Oscillospirales</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -22620,7 +24057,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -24719,7 +26156,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -29899,7 +31336,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -32706,7 +34143,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -38756,7 +40193,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -41281,7 +42718,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -47519,7 +48956,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -50326,6 +51763,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/outputs/fft-c__Clostridia.xlsx
+++ b/outputs/fft-c__Clostridia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2AAF775-71AE-BA46-B21A-C87EEDF1F55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F3131-EC76-8E4E-94BF-B79F751C3CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12140" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="g__RC9-LSVM-2" sheetId="11" r:id="rId13"/>
     <sheet name="g__Prevotella-LSVM-2" sheetId="12" r:id="rId14"/>
     <sheet name="g__C941-LSVM-2" sheetId="15" r:id="rId15"/>
+    <sheet name="statistics" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3394" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3403" uniqueCount="425">
   <si>
     <t>o__Acetivibrionales</t>
   </si>
@@ -1283,12 +1284,39 @@
   <si>
     <t>RUG496</t>
   </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>partially correct</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>g__Prevotella</t>
+  </si>
+  <si>
+    <t>f__Lachnospiraceae</t>
+  </si>
+  <si>
+    <t>g__RC9</t>
+  </si>
+  <si>
+    <t>g__Ruminococcues_E</t>
+  </si>
+  <si>
+    <t>g__C941</t>
+  </si>
+  <si>
+    <t>alpha = 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1307,6 +1335,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1359,7 +1393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1367,6 +1401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20526,7 +20561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -22005,6 +22040,96 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8F2A91-8268-8744-BF40-5BA7E6675EB0}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99212598425196841</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>7.874015748031496E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.28244274809160308</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.71755725190839703</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.98275862068965525</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/outputs/fft-c__Clostridia.xlsx
+++ b/outputs/fft-c__Clostridia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9F3131-EC76-8E4E-94BF-B79F751C3CFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51FDADF9-6272-3542-9B48-576984F3A562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12140" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="8" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="8" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="g__RC9-LSVM-1" sheetId="7" r:id="rId8"/>
     <sheet name="f__Lachnospiracea-LSVM-1" sheetId="8" r:id="rId9"/>
     <sheet name="g__C941-LSVM-1" sheetId="14" r:id="rId10"/>
-    <sheet name="g__Ruminococcus_E-LSVM-2" sheetId="9" r:id="rId11"/>
-    <sheet name="f__Lachnospiracea-LSVM-2" sheetId="10" r:id="rId12"/>
-    <sheet name="g__RC9-LSVM-2" sheetId="11" r:id="rId13"/>
-    <sheet name="g__Prevotella-LSVM-2" sheetId="12" r:id="rId14"/>
-    <sheet name="g__C941-LSVM-2" sheetId="15" r:id="rId15"/>
-    <sheet name="statistics" sheetId="16" r:id="rId16"/>
+    <sheet name="statistics-1" sheetId="16" r:id="rId11"/>
+    <sheet name="g__Ruminococcus_E-LSVM-2" sheetId="9" r:id="rId12"/>
+    <sheet name="f__Lachnospiracea-LSVM-2" sheetId="10" r:id="rId13"/>
+    <sheet name="g__RC9-LSVM-2" sheetId="11" r:id="rId14"/>
+    <sheet name="g__Prevotella-LSVM-2" sheetId="12" r:id="rId15"/>
+    <sheet name="g__C941-LSVM-2" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -5266,10 +5266,100 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8F2A91-8268-8744-BF40-5BA7E6675EB0}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>416</v>
+      </c>
+      <c r="C2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>419</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.99212598425196841</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3">
+        <v>7.874015748031496E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.28244274809160308</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.71755725190839703</v>
+      </c>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.92307692307692302</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3">
+        <v>7.6923076923076927E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.98275862068965525</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.7241379310344827E-2</v>
+      </c>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>423</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7694,11 +7784,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A20" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -13116,7 +13206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M53"/>
   <sheetViews>
@@ -15299,7 +15389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M128"/>
   <sheetViews>
@@ -20557,7 +20647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
@@ -22040,96 +22130,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8F2A91-8268-8744-BF40-5BA7E6675EB0}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>419</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.99212598425196841</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>7.874015748031496E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>420</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0.28244274809160308</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.71755725190839703</v>
-      </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>421</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0.92307692307692302</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>422</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0.98275862068965525</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1.7241379310344827E-2</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>423</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -44262,7 +44262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A26" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/outputs/fft-c__Clostridia.xlsx
+++ b/outputs/fft-c__Clostridia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wanxinli/Desktop/project/BlindKameris-new/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238564BB-7AD5-0D44-BC62-0D94F6A2BF60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F860B7-DA90-2A46-A891-1AA73E517A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="960" yWindow="460" windowWidth="28800" windowHeight="15880" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="g__Ruminococcus_E-LSVM" sheetId="1" r:id="rId1"/>
@@ -10714,7 +10714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12119,7 +12121,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12203,12 +12205,12 @@
         <v>425</v>
       </c>
       <c r="B8" s="3">
-        <v>0.2121212121212121</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.78787878787878785</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>0.78</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>0.21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
